--- a/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
+++ b/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="B92" s="65">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B93" s="65">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
